--- a/tests/test1/d10/ЛМ, 0.0.xlsx
+++ b/tests/test1/d10/ЛМ, 0.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.01565809999999601</v>
+        <v>0.01959719999999265</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.01006579999999246</v>
+        <v>0.00669990000000098</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003764600000010887</v>
+        <v>0.004465000000010377</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.007509599999991678</v>
+        <v>0.007581000000001836</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.01657420000000798</v>
+        <v>0.01616399999998919</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004141500000002907</v>
+        <v>0.002451499999992279</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.01161040000000924</v>
+        <v>0.008028000000010138</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.007823099999995975</v>
+        <v>0.003574799999995548</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.01597360000000947</v>
+        <v>0.01503529999999387</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.005921900000004143</v>
+        <v>0.008706300000000056</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.008782400000001189</v>
+        <v>0.01135700000000384</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002388300000006893</v>
+        <v>0.004073199999993449</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002202400000001603</v>
+        <v>0.002564999999989936</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.008360599999988949</v>
+        <v>0.009199399999999969</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.007944399999999519</v>
+        <v>0.01187079999999696</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.005163300000006643</v>
+        <v>0.009765099999995641</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002588700000003996</v>
+        <v>0.008845800000003123</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002534900000000562</v>
+        <v>0.002262000000001763</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.007706600000005892</v>
+        <v>0.005157699999998044</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003606800000000021</v>
+        <v>0.002772300000003725</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.006014399999997977</v>
+        <v>0.008146799999991572</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.0047818000000035</v>
+        <v>0.002716300000003002</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002189200000003666</v>
+        <v>0.002107300000005807</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.00624700000000189</v>
+        <v>0.007375500000009083</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.008166200000005119</v>
+        <v>0.006713099999998917</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.009445999999996957</v>
+        <v>0.005587899999994761</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002410599999990382</v>
+        <v>0.002569700000009334</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.00589469999999892</v>
+        <v>0.003516399999995201</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.007694599999993557</v>
+        <v>0.005159499999990658</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.01253049999999689</v>
+        <v>0.006311800000005974</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.007584699999995337</v>
+        <v>0.007397300000008045</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002674799999994093</v>
+        <v>0.002336600000006683</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.008496400000012727</v>
+        <v>0.006630700000002321</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.004155400000001919</v>
+        <v>0.002328200000007996</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001953099999994379</v>
+        <v>0.001822299999986399</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.007621599999993123</v>
+        <v>0.006828799999993862</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.01354069999999297</v>
+        <v>0.008734500000002754</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.0111702999999892</v>
+        <v>0.009829600000003325</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.006458399999999642</v>
+        <v>0.003091699999998809</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.009547200000000089</v>
+        <v>0.005078100000005747</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.005726199999998016</v>
+        <v>0.004300000000000637</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003349599999992847</v>
+        <v>0.002685700000000679</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.005369500000000471</v>
+        <v>0.005239599999995903</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002552100000002611</v>
+        <v>0.005138799999997445</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004918900000006943</v>
+        <v>0.007863599999993198</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.01728020000000186</v>
+        <v>0.01266190000001188</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.01212719999999479</v>
+        <v>0.01220440000000167</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.004150199999997994</v>
+        <v>0.004763400000001639</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001880899999989083</v>
+        <v>0.002303200000000061</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002106300000008332</v>
+        <v>0.002032400000004486</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002995900000001939</v>
+        <v>0.004382899999995971</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003385699999995495</v>
+        <v>0.005643899999995483</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003409199999993007</v>
+        <v>0.003196199999990768</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.007748800000001665</v>
+        <v>0.007397600000004445</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002420799999995893</v>
+        <v>0.003986100000005877</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002088700000001609</v>
+        <v>0.003681299999996668</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.006054100000000062</v>
+        <v>0.008948300000000131</v>
       </c>
       <c r="Y58" t="n">
         <v>26</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003456200000002241</v>
+        <v>0.001972100000003252</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002439199999997754</v>
+        <v>0.002384700000007456</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.00647670000000744</v>
+        <v>0.004224199999995903</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002115200000005757</v>
+        <v>0.002029300000003786</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.006485299999994254</v>
+        <v>0.00461229999999091</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001844599999998309</v>
+        <v>0.001811400000008234</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.00599160000000154</v>
+        <v>0.003899500000002831</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002661599999996156</v>
+        <v>0.002308600000006322</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002358700000002045</v>
+        <v>0.001944399999999291</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002167600000007042</v>
+        <v>0.003801199999998062</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004794499999988489</v>
+        <v>0.004151800000002481</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002273200000004749</v>
+        <v>0.003658399999991957</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.00248599999999044</v>
+        <v>0.002182300000001192</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005948300000000017</v>
+        <v>0.00763309999999251</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002130900000011593</v>
+        <v>0.001935500000001866</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.00226419999999905</v>
+        <v>0.002253300000006675</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005892299999999295</v>
+        <v>0.004643400000006181</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002404100000006792</v>
+        <v>0.002870099999995546</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002722599999998465</v>
+        <v>0.002550299999995786</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002419500000002017</v>
+        <v>0.002168199999999842</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005445299999990993</v>
+        <v>0.005563500000008048</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001944600000001628</v>
+        <v>0.003489899999991053</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003658700000002568</v>
+        <v>0.003469300000006115</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004364999999992847</v>
+        <v>0.005020699999988665</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.00408000000000186</v>
+        <v>0.005851699999993798</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002416100000004917</v>
+        <v>0.006923200000002794</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.004365100000001121</v>
+        <v>0.008918699999995283</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002822499999993511</v>
+        <v>0.003183500000005779</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.005228500000001191</v>
+        <v>0.004699799999997367</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.004904899999999657</v>
+        <v>0.003904399999996144</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005366700000010383</v>
+        <v>0.02366070000000775</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.007585599999998749</v>
+        <v>0.01246810000000664</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.00296880000000499</v>
+        <v>0.006400300000009906</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003807399999999461</v>
+        <v>0.003669099999996206</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.005765100000004963</v>
+        <v>0.00374039999999809</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.01283730000000105</v>
+        <v>0.009958799999992607</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.007711099999994531</v>
+        <v>0.009817000000012399</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005270100000004163</v>
+        <v>0.009277199999999652</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002392799999995532</v>
+        <v>0.004147399999993695</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002340500000002521</v>
+        <v>0.003692199999989043</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.00552149999998619</v>
+        <v>0.00820210000000543</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.007702099999988832</v>
+        <v>0.005908800000000269</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005019899999993527</v>
+        <v>0.01130510000000129</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 0.0.xlsx
+++ b/tests/test1/d10/ЛМ, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.01959719999999265</v>
+        <v>0.01256789999999341</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.00669990000000098</v>
+        <v>0.006259200000002352</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.004465000000010377</v>
+        <v>0.007434799999998631</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.007581000000001836</v>
+        <v>0.01840409999999792</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.01616399999998919</v>
+        <v>0.01540270000000987</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002451499999992279</v>
+        <v>0.006631699999999796</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.008028000000010138</v>
+        <v>0.01974599999999782</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.003574799999995548</v>
+        <v>0.004555099999990375</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.01503529999999387</v>
+        <v>0.007465499999995018</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.008706300000000056</v>
+        <v>0.004895899999993958</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.01135700000000384</v>
+        <v>0.01257619999999804</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.004073199999993449</v>
+        <v>0.00543389999999988</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002564999999989936</v>
+        <v>0.005452500000004079</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.009199399999999969</v>
+        <v>0.01035459999999944</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.01187079999999696</v>
+        <v>0.007467099999999505</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.009765099999995641</v>
+        <v>0.006618500000001859</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.008845800000003123</v>
+        <v>0.003752599999998552</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002262000000001763</v>
+        <v>0.006893600000012157</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.005157699999998044</v>
+        <v>0.005690100000009579</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002772300000003725</v>
+        <v>0.002337199999999484</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.008146799999991572</v>
+        <v>0.008234099999995692</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002716300000003002</v>
+        <v>0.002136300000003644</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002107300000005807</v>
+        <v>0.004131899999990196</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.007375500000009083</v>
+        <v>0.005549800000011373</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.006713099999998917</v>
+        <v>0.01006870000000504</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005587899999994761</v>
+        <v>0.006372499999997672</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002569700000009334</v>
+        <v>0.004433899999995106</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003516399999995201</v>
+        <v>0.00401079999998899</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005159499999990658</v>
+        <v>0.005647100000004457</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.006311800000005974</v>
+        <v>0.008265799999989554</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.007397300000008045</v>
+        <v>0.01013679999999795</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002336600000006683</v>
+        <v>0.00462670000000287</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.006630700000002321</v>
+        <v>0.007598500000000286</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002328200000007996</v>
+        <v>0.002899900000002731</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001822299999986399</v>
+        <v>0.002675899999999842</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.006828799999993862</v>
+        <v>0.003389300000009143</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.008734500000002754</v>
+        <v>0.008853500000000736</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.009829600000003325</v>
+        <v>0.009606800000000248</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003091699999998809</v>
+        <v>0.003663899999992282</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.005078100000005747</v>
+        <v>0.006396300000005795</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.004300000000000637</v>
+        <v>0.002591100000003621</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002685700000000679</v>
+        <v>0.002285899999989738</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.005239599999995903</v>
+        <v>0.003466699999989942</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.005138799999997445</v>
+        <v>0.002371300000007182</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.007863599999993198</v>
+        <v>0.004532499999996276</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.01266190000001188</v>
+        <v>0.006947999999994181</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.01220440000000167</v>
+        <v>0.007263899999998102</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.004763400000001639</v>
+        <v>0.003644399999998882</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002303200000000061</v>
+        <v>0.002190999999996279</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002032400000004486</v>
+        <v>0.004672999999996819</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004382899999995971</v>
+        <v>0.004273600000004762</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.005643899999995483</v>
+        <v>0.005990400000001728</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003196199999990768</v>
+        <v>0.003679699999992181</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.007397600000004445</v>
+        <v>0.006857400000001235</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.003986100000005877</v>
+        <v>0.005042100000011374</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003681299999996668</v>
+        <v>0.002406899999996881</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.008948300000000131</v>
+        <v>0.006866100000010533</v>
       </c>
       <c r="Y58" t="n">
         <v>26</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001972100000003252</v>
+        <v>0.004542899999989913</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002384700000007456</v>
+        <v>0.00272329999999954</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004224199999995903</v>
+        <v>0.006177899999997294</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002029300000003786</v>
+        <v>0.002373699999992596</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00461229999999091</v>
+        <v>0.007090599999997949</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001811400000008234</v>
+        <v>0.00384919999999056</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003899500000002831</v>
+        <v>0.004765200000008463</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002308600000006322</v>
+        <v>0.002747900000002801</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001944399999999291</v>
+        <v>0.002483399999988478</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003801199999998062</v>
+        <v>0.002440699999993967</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004151800000002481</v>
+        <v>0.005618600000005358</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003658399999991957</v>
+        <v>0.002414999999999168</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002182300000001192</v>
+        <v>0.003197000000000116</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00763309999999251</v>
+        <v>0.00880700000000445</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001935500000001866</v>
+        <v>0.002416299999993043</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002253300000006675</v>
+        <v>0.002361499999992134</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004643400000006181</v>
+        <v>0.005404999999996107</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002870099999995546</v>
+        <v>0.004312799999993899</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6738,7 +6738,7 @@
         <v>102.4091639290469</v>
       </c>
       <c r="H77" t="n">
-        <v>3.791584572698503</v>
+        <v>3.791584572698504</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>1.704899783576348e-11</v>
       </c>
       <c r="V77" t="n">
-        <v>1.823036253114848e-05</v>
+        <v>1.82303625314413e-05</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002550299999995786</v>
+        <v>0.003135600000007344</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002168199999999842</v>
+        <v>0.004316199999990999</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005563500000008048</v>
+        <v>0.00614160000000652</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003489899999991053</v>
+        <v>0.002053099999997698</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003469300000006115</v>
+        <v>0.004058999999998036</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.005020699999988665</v>
+        <v>0.00582180000000676</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.005851699999993798</v>
+        <v>0.003045000000000186</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.006923200000002794</v>
+        <v>0.002506999999994264</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.008918699999995283</v>
+        <v>0.003179099999996993</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003183500000005779</v>
+        <v>0.002285000000000537</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.004699799999997367</v>
+        <v>0.0108996000000019</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003904399999996144</v>
+        <v>0.002237299999990228</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.02366070000000775</v>
+        <v>0.006218099999998117</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.01246810000000664</v>
+        <v>0.01185079999999061</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.006400300000009906</v>
+        <v>0.003442500000005566</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003669099999996206</v>
+        <v>0.003778299999993351</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00374039999999809</v>
+        <v>0.00682420000001116</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.009958799999992607</v>
+        <v>0.01270449999999812</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.009817000000012399</v>
+        <v>0.008870200000004047</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.009277199999999652</v>
+        <v>0.007627599999992185</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.004147399999993695</v>
+        <v>0.002345499999989897</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.003692199999989043</v>
+        <v>0.004838100000000622</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.00820210000000543</v>
+        <v>0.01135800000000131</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.005908800000000269</v>
+        <v>0.008882100000008109</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.01130510000000129</v>
+        <v>0.008481000000003291</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 0.0.xlsx
+++ b/tests/test1/d10/ЛМ, 0.0.xlsx
@@ -588,7 +588,7 @@
         <v>98.78643414126417</v>
       </c>
       <c r="H2" t="n">
-        <v>11.58228254574496</v>
+        <v>11.58228254574495</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>15.80711097780685</v>
       </c>
       <c r="O2" t="n">
-        <v>70.56128307592249</v>
+        <v>70.5612830759225</v>
       </c>
       <c r="P2" t="n">
         <v>15.80712314885331</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.061687687713265e-13</v>
+        <v>4.061687680001082e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>3.970926014355563e-06</v>
+        <v>3.970926019748841e-06</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.01256789999999341</v>
+        <v>0.004511500000000002</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -664,7 +664,7 @@
         <v>1.048593799504829e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>9.999964314969152</v>
+        <v>9.999964314969155</v>
       </c>
       <c r="G3" t="n">
         <v>75.06392710537374</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.201205191067698e-11</v>
+        <v>2.201205191188667e-11</v>
       </c>
       <c r="V3" t="n">
-        <v>2.388699762883723e-05</v>
+        <v>2.388699762775137e-05</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.006259200000002352</v>
+        <v>0.002966400000000036</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -749,10 +749,10 @@
         <v>10.0000078214116</v>
       </c>
       <c r="G4" t="n">
-        <v>78.47900985962089</v>
+        <v>78.47900985962086</v>
       </c>
       <c r="H4" t="n">
-        <v>3.311126204432919</v>
+        <v>3.31112620443292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.029153150389398e-11</v>
+        <v>1.029153150692387e-11</v>
       </c>
       <c r="V4" t="n">
-        <v>1.575385076657191e-05</v>
+        <v>1.575385076724251e-05</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.007434799999998631</v>
+        <v>0.002642699999999998</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -855,7 +855,7 @@
         <v>15.67687823027242</v>
       </c>
       <c r="O5" t="n">
-        <v>70.66253953338841</v>
+        <v>70.6625395333884</v>
       </c>
       <c r="P5" t="n">
         <v>15.67689046835905</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4.192870587093043e-13</v>
+        <v>4.192870583276289e-13</v>
       </c>
       <c r="V5" t="n">
-        <v>4.027410471638907e-06</v>
+        <v>4.027410463958389e-06</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.01840409999999792</v>
+        <v>0.005846100000000298</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.105600548619987e-11</v>
+        <v>2.105600548615466e-11</v>
       </c>
       <c r="V6" t="n">
         <v>1.080882636466408e-05</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.01540270000000987</v>
+        <v>0.009452200000000133</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.795478159957197e-13</v>
+        <v>9.795478159743863e-13</v>
       </c>
       <c r="V7" t="n">
         <v>4.331347055631942e-06</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.006631699999999796</v>
+        <v>0.002852400000000088</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>160.7148167196753</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983762488248328</v>
+        <v>6.983762488248329</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.202330823016048e-13</v>
+        <v>2.202330827509571e-13</v>
       </c>
       <c r="V8" t="n">
-        <v>3.49728317143442e-06</v>
+        <v>3.497283171938643e-06</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.01974599999999782</v>
+        <v>0.009332000000000118</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1186,7 +1186,7 @@
         <v>12.15137798221169</v>
       </c>
       <c r="P9" t="n">
-        <v>22.28974651142261</v>
+        <v>22.28974651142262</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.667237982256651e-14</v>
+        <v>2.667237992195763e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>7.349987675532458e-07</v>
+        <v>7.349987693344789e-07</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.004555099999990375</v>
+        <v>0.00191109999999961</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1268,7 +1268,7 @@
         <v>137.8318630433311</v>
       </c>
       <c r="P10" t="n">
-        <v>11.86539457926842</v>
+        <v>11.86539457926841</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8.7200557396728e-11</v>
+        <v>8.720055738857917e-11</v>
       </c>
       <c r="V10" t="n">
-        <v>2.46414541512796e-05</v>
+        <v>2.464145415047687e-05</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.007465499999995018</v>
+        <v>0.01221700000000014</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1326,7 +1326,7 @@
         <v>1.867346498018962</v>
       </c>
       <c r="H11" t="n">
-        <v>9.022489302556011</v>
+        <v>9.022489302556009</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.241788414717034e-13</v>
+        <v>1.241788416130626e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>1.992891215000125e-06</v>
+        <v>1.992891215492327e-06</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.004895899999993958</v>
+        <v>0.001424599999999998</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,13 +1402,13 @@
         <v>359.9999993737241</v>
       </c>
       <c r="F12" t="n">
-        <v>10.00000077986167</v>
+        <v>10.00000077986168</v>
       </c>
       <c r="G12" t="n">
         <v>138.8377044790234</v>
       </c>
       <c r="H12" t="n">
-        <v>3.249023867619182</v>
+        <v>3.249023867619183</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.098779862734047e-13</v>
+        <v>1.098779865144399e-13</v>
       </c>
       <c r="V12" t="n">
-        <v>1.229845820138982e-06</v>
+        <v>1.229845820822401e-06</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.01257619999999804</v>
+        <v>0.003851099999999885</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1490,7 +1490,7 @@
         <v>32.44853974845829</v>
       </c>
       <c r="H13" t="n">
-        <v>3.233704124883107</v>
+        <v>3.233704124883108</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.235575302277665e-14</v>
+        <v>4.235575304508372e-14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.343023046219925e-06</v>
+        <v>1.343023047172263e-06</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.00543389999999988</v>
+        <v>0.001678199999999741</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.464066661852844e-11</v>
+        <v>1.464066661909941e-11</v>
       </c>
       <c r="V14" t="n">
-        <v>1.600197802753343e-05</v>
+        <v>1.600197802715963e-05</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.005452500000004079</v>
+        <v>0.001815200000000239</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.9863658742052</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850518987504185</v>
+        <v>5.850518987504189</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>70.5569896842089</v>
       </c>
       <c r="P15" t="n">
-        <v>6.028275543032228</v>
+        <v>6.028275543032231</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.928798899419932e-11</v>
+        <v>1.928798899915107e-11</v>
       </c>
       <c r="V15" t="n">
-        <v>2.143302205974435e-05</v>
+        <v>2.143302206224471e-05</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.01035459999999944</v>
+        <v>0.003968200000000088</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>7.402667499301284e-14</v>
+        <v>7.402667500220759e-14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.658038528356263e-06</v>
+        <v>1.658038528717958e-06</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.007467099999999505</v>
+        <v>0.003628599999999871</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1842,7 +1842,7 @@
         <v>64.6668777755164</v>
       </c>
       <c r="P17" t="n">
-        <v>4.41979701815103</v>
+        <v>4.419797018151031</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.396020628971788e-13</v>
+        <v>7.396020629274658e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>3.616364454707785e-06</v>
+        <v>3.616364455474136e-06</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.006618500000001859</v>
+        <v>0.004333199999999593</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1900,7 +1900,7 @@
         <v>40.19239519871811</v>
       </c>
       <c r="H18" t="n">
-        <v>9.27796159376048</v>
+        <v>9.277961593760482</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.39276312640048e-14</v>
+        <v>3.392763127219398e-14</v>
       </c>
       <c r="V18" t="n">
-        <v>7.590382549158204e-07</v>
+        <v>7.5903825539447e-07</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003752599999998552</v>
+        <v>0.001832900000000137</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -1979,10 +1979,10 @@
         <v>10.00000520305558</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03970647967866</v>
+        <v>53.03970647967867</v>
       </c>
       <c r="H19" t="n">
-        <v>9.367049481523027</v>
+        <v>9.367049481523022</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>35.67338447471086</v>
       </c>
       <c r="P19" t="n">
-        <v>17.40877544675744</v>
+        <v>17.40877544675743</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.034119675571777e-12</v>
+        <v>1.034119673965113e-12</v>
       </c>
       <c r="V19" t="n">
-        <v>4.312128367180745e-06</v>
+        <v>4.312128365078197e-06</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.006893600000012157</v>
+        <v>0.002713500000000035</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>117.067362768903</v>
       </c>
       <c r="H20" t="n">
-        <v>9.065451614421111</v>
+        <v>9.065451614421107</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>77.36702703700439</v>
       </c>
       <c r="P20" t="n">
-        <v>11.12686190414806</v>
+        <v>11.12686190414805</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.7237012860454e-13</v>
+        <v>7.723701280984486e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>5.368181017210851e-06</v>
+        <v>5.368181015965034e-06</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.005690100000009579</v>
+        <v>0.004071399999999947</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2143,7 +2143,7 @@
         <v>10.0000010233917</v>
       </c>
       <c r="G21" t="n">
-        <v>17.55605031699416</v>
+        <v>17.55605031699417</v>
       </c>
       <c r="H21" t="n">
         <v>12.13500212867478</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.141832501679785e-13</v>
+        <v>2.141832500037419e-13</v>
       </c>
       <c r="V21" t="n">
-        <v>2.008783166831946e-06</v>
+        <v>2.008783167197903e-06</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002337199999999484</v>
+        <v>0.00160209999999994</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,7 +2222,7 @@
         <v>359.999991232987</v>
       </c>
       <c r="F22" t="n">
-        <v>10.00004081373034</v>
+        <v>10.00004081373033</v>
       </c>
       <c r="G22" t="n">
         <v>105.8635613190257</v>
@@ -2252,7 +2252,7 @@
         <v>80.46805627217793</v>
       </c>
       <c r="P22" t="n">
-        <v>17.30713993326847</v>
+        <v>17.30713993326846</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.53503310915793e-12</v>
+        <v>9.535033106838905e-12</v>
       </c>
       <c r="V22" t="n">
-        <v>2.357919794669096e-05</v>
+        <v>2.357919794503937e-05</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.008234099999995692</v>
+        <v>0.004072999999999993</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.249838231913872e-11</v>
+        <v>3.249838231974278e-11</v>
       </c>
       <c r="V23" t="n">
         <v>3.250457334184283e-05</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002136300000003644</v>
+        <v>0.001379000000000019</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>359.9999872538498</v>
       </c>
       <c r="F24" t="n">
-        <v>10.00002052065972</v>
+        <v>10.00002052065971</v>
       </c>
       <c r="G24" t="n">
         <v>37.52292140380968</v>
       </c>
       <c r="H24" t="n">
-        <v>8.780215369095005</v>
+        <v>8.780215369095007</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>25.73746593850051</v>
       </c>
       <c r="P24" t="n">
-        <v>17.47356244503466</v>
+        <v>17.47356244503467</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.965731550416623e-11</v>
+        <v>2.965731550664838e-11</v>
       </c>
       <c r="V24" t="n">
-        <v>2.237243708021015e-05</v>
+        <v>2.23724370810548e-05</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.004131899999990196</v>
+        <v>0.001552300000000173</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.094774086555842e-13</v>
+        <v>9.094774090737578e-13</v>
       </c>
       <c r="V25" t="n">
         <v>6.531935236308713e-06</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.005549800000011373</v>
+        <v>0.003759500000000138</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2547,7 +2547,7 @@
         <v>11.39414459939491</v>
       </c>
       <c r="E26" t="n">
-        <v>6.099809748071713e-07</v>
+        <v>6.099809620849526e-07</v>
       </c>
       <c r="F26" t="n">
         <v>10.00001075874472</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.605564793265582e-11</v>
+        <v>1.605564793298217e-11</v>
       </c>
       <c r="V26" t="n">
         <v>7.910074299341568e-06</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.01006870000000504</v>
+        <v>0.004491600000000151</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2638,7 +2638,7 @@
         <v>156.6223037677045</v>
       </c>
       <c r="H27" t="n">
-        <v>9.987395545249244</v>
+        <v>9.987395545249241</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2659,10 +2659,10 @@
         <v>6.942709063967283</v>
       </c>
       <c r="O27" t="n">
-        <v>121.4008917932679</v>
+        <v>121.4008917932678</v>
       </c>
       <c r="P27" t="n">
-        <v>6.942756087616287</v>
+        <v>6.942756087616282</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>6.280085901589357e-11</v>
+        <v>6.280085901210133e-11</v>
       </c>
       <c r="V27" t="n">
-        <v>3.468876313998089e-05</v>
+        <v>3.468876315223636e-05</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.006372499999997672</v>
+        <v>0.005425699999999978</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2720,7 +2720,7 @@
         <v>55.42829868516414</v>
       </c>
       <c r="H28" t="n">
-        <v>9.232707845928514</v>
+        <v>9.232707845928511</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.513985680236022e-12</v>
+        <v>1.513985679725748e-12</v>
       </c>
       <c r="V28" t="n">
-        <v>5.243564249957837e-06</v>
+        <v>5.243564248649825e-06</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004433899999995106</v>
+        <v>0.002037499999999692</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2841,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.126864792003975e-13</v>
+        <v>3.126864795938189e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>3.016965150962841e-06</v>
+        <v>3.016965150615218e-06</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.00401079999998899</v>
+        <v>0.002475200000000122</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2884,7 +2884,7 @@
         <v>131.2224643659333</v>
       </c>
       <c r="H30" t="n">
-        <v>9.734912854462316</v>
+        <v>9.734912854462312</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>91.80925088418354</v>
       </c>
       <c r="P30" t="n">
-        <v>9.962034020248556</v>
+        <v>9.96203402024855</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.840037241971299e-12</v>
+        <v>4.840037241241794e-12</v>
       </c>
       <c r="V30" t="n">
-        <v>1.628483680506928e-05</v>
+        <v>1.628483680326535e-05</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005647100000004457</v>
+        <v>0.004144700000000334</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -2966,7 +2966,7 @@
         <v>155.476769608107</v>
       </c>
       <c r="H31" t="n">
-        <v>6.418881472717163</v>
+        <v>6.418881472717161</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>4.383667298314077</v>
       </c>
       <c r="O31" t="n">
-        <v>85.08186074696131</v>
+        <v>85.0818607469613</v>
       </c>
       <c r="P31" t="n">
-        <v>4.383674971735479</v>
+        <v>4.38367497173548</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.729554177926249e-12</v>
+        <v>1.729554177851587e-12</v>
       </c>
       <c r="V31" t="n">
-        <v>7.737424802354325e-06</v>
+        <v>7.737424794894733e-06</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.008265799999989554</v>
+        <v>0.004091899999999704</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3048,7 +3048,7 @@
         <v>115.9458274019199</v>
       </c>
       <c r="H32" t="n">
-        <v>7.569007540818709</v>
+        <v>7.56900754081871</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>9.94082687493656</v>
       </c>
       <c r="O32" t="n">
-        <v>69.94009784079599</v>
+        <v>69.940097840796</v>
       </c>
       <c r="P32" t="n">
-        <v>9.940855272650991</v>
+        <v>9.940855272650994</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3087,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>8.458812990698411e-12</v>
+        <v>8.458812991357795e-12</v>
       </c>
       <c r="V32" t="n">
-        <v>1.532382818360916e-05</v>
+        <v>1.532382818449817e-05</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.01013679999999795</v>
+        <v>0.003792600000000146</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3127,7 +3127,7 @@
         <v>10.00004405706443</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48973502315307</v>
+        <v>51.48973502315306</v>
       </c>
       <c r="H33" t="n">
         <v>14.49735218228753</v>
@@ -3151,7 +3151,7 @@
         <v>23.45979414801152</v>
       </c>
       <c r="O33" t="n">
-        <v>39.06161674117527</v>
+        <v>39.06161674117526</v>
       </c>
       <c r="P33" t="n">
         <v>23.45992386878252</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.734996089126287e-11</v>
+        <v>3.734996089404686e-11</v>
       </c>
       <c r="V33" t="n">
         <v>2.905728696923572e-05</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00462670000000287</v>
+        <v>0.001728299999999905</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3206,13 +3206,13 @@
         <v>359.9999989942087</v>
       </c>
       <c r="F34" t="n">
-        <v>10.00000347303358</v>
+        <v>10.00000347303357</v>
       </c>
       <c r="G34" t="n">
         <v>154.600062089296</v>
       </c>
       <c r="H34" t="n">
-        <v>7.472537772344448</v>
+        <v>7.472537772344447</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>98.12939215575425</v>
       </c>
       <c r="P34" t="n">
-        <v>5.067649549951772</v>
+        <v>5.067649549951771</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.028611538857432e-13</v>
+        <v>1.028611537314376e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>2.409161064154453e-06</v>
+        <v>2.409161063565198e-06</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.007598500000000286</v>
+        <v>0.005657199999999918</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4.775724737331597e-14</v>
+        <v>4.775724752674547e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>8.986481491968268e-07</v>
+        <v>8.98648148842865e-07</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002899900000002731</v>
+        <v>0.001865099999999842</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3376,7 +3376,7 @@
         <v>6.941104640849672</v>
       </c>
       <c r="H36" t="n">
-        <v>12.36121560414198</v>
+        <v>12.36121560414199</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.649402124717897e-13</v>
+        <v>3.649402126390788e-13</v>
       </c>
       <c r="V36" t="n">
-        <v>3.079833446273658e-06</v>
+        <v>3.07983344735144e-06</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002675899999999842</v>
+        <v>0.001669000000000143</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>82.44989134461434</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700198206422544</v>
+        <v>6.700198206422543</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>12.44155687331505</v>
       </c>
       <c r="O37" t="n">
-        <v>47.28303102102433</v>
+        <v>47.28303102102432</v>
       </c>
       <c r="P37" t="n">
         <v>12.44156114166863</v>
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.151530273604937e-13</v>
+        <v>2.151530272883162e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>1.9888098994226e-06</v>
+        <v>1.9888098990912e-06</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003389300000009143</v>
+        <v>0.002980100000000263</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>5.843555604200811e-13</v>
+        <v>5.843555598770124e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>5.701556846821535e-06</v>
+        <v>5.701556844666269e-06</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.008853500000000736</v>
+        <v>0.00736879999999962</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3622,7 +3622,7 @@
         <v>170.0093657149474</v>
       </c>
       <c r="H39" t="n">
-        <v>8.569199846306956</v>
+        <v>8.569199846306955</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>132.8794657677053</v>
       </c>
       <c r="P39" t="n">
-        <v>4.031772483926308</v>
+        <v>4.031772483926306</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.769427198384619e-11</v>
+        <v>1.769427198347578e-11</v>
       </c>
       <c r="V39" t="n">
-        <v>1.472489494754244e-05</v>
+        <v>1.472489494628989e-05</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.009606800000000248</v>
+        <v>0.005744500000000041</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.157009185841564e-11</v>
+        <v>1.157009185786576e-11</v>
       </c>
       <c r="V40" t="n">
-        <v>1.766090289235326e-05</v>
+        <v>1.766090289268675e-05</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003663899999992282</v>
+        <v>0.002416899999999611</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3780,7 +3780,7 @@
         <v>359.9999970742402</v>
       </c>
       <c r="F41" t="n">
-        <v>10.00001217854744</v>
+        <v>10.00001217854743</v>
       </c>
       <c r="G41" t="n">
         <v>98.44005492239123</v>
@@ -3810,7 +3810,7 @@
         <v>72.19762103038457</v>
       </c>
       <c r="P41" t="n">
-        <v>16.9063326873204</v>
+        <v>16.90633268732039</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.272459395755182e-12</v>
+        <v>1.272459394562979e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>7.44228218735625e-06</v>
+        <v>7.442282185243146e-06</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.006396300000005795</v>
+        <v>0.003396700000000141</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3868,7 +3868,7 @@
         <v>73.38360365588623</v>
       </c>
       <c r="H42" t="n">
-        <v>3.664407337487274</v>
+        <v>3.664407337487275</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>10.18120494273455</v>
       </c>
       <c r="O42" t="n">
-        <v>31.92626901691848</v>
+        <v>31.92626901691847</v>
       </c>
       <c r="P42" t="n">
         <v>10.18122916071859</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.456832197447503e-11</v>
+        <v>1.456832197505463e-11</v>
       </c>
       <c r="V42" t="n">
-        <v>1.803391464992475e-05</v>
+        <v>1.803391465141526e-05</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002591100000003621</v>
+        <v>0.001641999999999921</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3941,16 +3941,16 @@
         <v>3.553149848071341</v>
       </c>
       <c r="E43" t="n">
-        <v>359.9999985916012</v>
+        <v>359.9999985916013</v>
       </c>
       <c r="F43" t="n">
         <v>10.00000054260104</v>
       </c>
       <c r="G43" t="n">
-        <v>45.16624233789002</v>
+        <v>45.16624233789004</v>
       </c>
       <c r="H43" t="n">
-        <v>3.553152689182694</v>
+        <v>3.553152689182692</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>11.20442922515501</v>
       </c>
       <c r="O43" t="n">
-        <v>21.98281848198624</v>
+        <v>21.98281848198625</v>
       </c>
       <c r="P43" t="n">
-        <v>11.20443306141221</v>
+        <v>11.2044330614122</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.194609146324024e-13</v>
+        <v>3.194609145012289e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>3.113896063864155e-06</v>
+        <v>3.113896061062835e-06</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002285899999989738</v>
+        <v>0.001651499999999917</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4032,7 +4032,7 @@
         <v>67.41718360355564</v>
       </c>
       <c r="H44" t="n">
-        <v>14.40849804636</v>
+        <v>14.40849804635999</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.159107596583133e-11</v>
+        <v>2.159107596818175e-11</v>
       </c>
       <c r="V44" t="n">
-        <v>2.469714755847063e-05</v>
+        <v>2.46971475664599e-05</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003466699999989942</v>
+        <v>0.002222100000000005</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4114,7 +4114,7 @@
         <v>20.70982428096261</v>
       </c>
       <c r="H45" t="n">
-        <v>10.30880457401637</v>
+        <v>10.30880457401636</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>19.74929820405307</v>
       </c>
       <c r="O45" t="n">
-        <v>16.30649528802308</v>
+        <v>16.30649528802309</v>
       </c>
       <c r="P45" t="n">
         <v>19.74930661680753</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.597815277948192e-13</v>
+        <v>3.597815272197435e-13</v>
       </c>
       <c r="V45" t="n">
-        <v>2.572276484653249e-06</v>
+        <v>2.572276490897104e-06</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002371300000007182</v>
+        <v>0.001848099999999686</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.926412137244441e-12</v>
+        <v>4.926412137410807e-12</v>
       </c>
       <c r="V46" t="n">
         <v>8.122318542806129e-06</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004532499999996276</v>
+        <v>0.003038399999999886</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4302,7 +4302,7 @@
         <v>159.1796692772982</v>
       </c>
       <c r="P47" t="n">
-        <v>4.410986124865535</v>
+        <v>4.410986124865536</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>3.731411606938273e-14</v>
+        <v>3.731411603724328e-14</v>
       </c>
       <c r="V47" t="n">
-        <v>3.844941367542051e-07</v>
+        <v>3.844941370897984e-07</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.006947999999994181</v>
+        <v>0.00474629999999987</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4360,7 +4360,7 @@
         <v>141.089817716005</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61802328403341</v>
+        <v>10.61802328403342</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>105.4244533378817</v>
       </c>
       <c r="P48" t="n">
-        <v>9.516243758534262</v>
+        <v>9.516243758534268</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.353390067924182e-12</v>
+        <v>1.353390068328105e-12</v>
       </c>
       <c r="V48" t="n">
-        <v>7.42853639919045e-06</v>
+        <v>7.428536401378505e-06</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.007263899999998102</v>
+        <v>0.004791800000000013</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>3.286948512780005e-12</v>
+        <v>3.286948512493064e-12</v>
       </c>
       <c r="V49" t="n">
-        <v>7.815563928426998e-06</v>
+        <v>7.815563927585734e-06</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003644399999998882</v>
+        <v>0.001625799999999789</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.532828246267862e-12</v>
+        <v>1.532828245892414e-12</v>
       </c>
       <c r="V50" t="n">
-        <v>7.133258724014941e-06</v>
+        <v>7.13325872433912e-06</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002190999999996279</v>
+        <v>0.002107599999999987</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4606,7 +4606,7 @@
         <v>54.17360614832623</v>
       </c>
       <c r="H51" t="n">
-        <v>5.964782982423283</v>
+        <v>5.964782982423285</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>5.322226183752755e-11</v>
+        <v>5.322226184092811e-11</v>
       </c>
       <c r="V51" t="n">
-        <v>2.985449689390876e-05</v>
+        <v>2.985449689487239e-05</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.004672999999996819</v>
+        <v>0.00158769999999997</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4688,7 +4688,7 @@
         <v>89.02829530876517</v>
       </c>
       <c r="H52" t="n">
-        <v>5.736999383149487</v>
+        <v>5.736999383149486</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>1.576881278040069e-13</v>
+        <v>1.576881275229691e-13</v>
       </c>
       <c r="V52" t="n">
-        <v>1.687472942473059e-06</v>
+        <v>1.687472942086019e-06</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004273600000004762</v>
+        <v>0.003034700000000168</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4770,7 +4770,7 @@
         <v>121.6316291646671</v>
       </c>
       <c r="H53" t="n">
-        <v>3.536548693583725</v>
+        <v>3.536548693583726</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>42.84508692169751</v>
       </c>
       <c r="P53" t="n">
-        <v>7.034859205015145</v>
+        <v>7.034859205015147</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>9.66901766951795e-13</v>
+        <v>9.669017667037071e-13</v>
       </c>
       <c r="V53" t="n">
-        <v>4.141512566944776e-06</v>
+        <v>4.141512560574125e-06</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.005990400000001728</v>
+        <v>0.00351480000000004</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4873,7 +4873,7 @@
         <v>5.169813417634993</v>
       </c>
       <c r="O54" t="n">
-        <v>39.20823581678926</v>
+        <v>39.20823581678925</v>
       </c>
       <c r="P54" t="n">
         <v>5.169814139108547</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>4.945538489229543e-14</v>
+        <v>4.945538479722088e-14</v>
       </c>
       <c r="V54" t="n">
-        <v>7.372641506582574e-07</v>
+        <v>7.372641503231883e-07</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003679699999992181</v>
+        <v>0.0028416</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4934,7 +4934,7 @@
         <v>152.3992273232796</v>
       </c>
       <c r="H55" t="n">
-        <v>9.733997139194924</v>
+        <v>9.733997139194932</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>114.2699198288106</v>
       </c>
       <c r="P55" t="n">
-        <v>7.220405528488167</v>
+        <v>7.220405528488172</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>8.514200456411419e-13</v>
+        <v>8.514200463791337e-13</v>
       </c>
       <c r="V55" t="n">
-        <v>4.99706394926092e-06</v>
+        <v>4.997063952315918e-06</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.006857400000001235</v>
+        <v>0.004742400000000035</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5013,7 +5013,7 @@
         <v>10.00001333759046</v>
       </c>
       <c r="G56" t="n">
-        <v>75.63294265298194</v>
+        <v>75.63294265298192</v>
       </c>
       <c r="H56" t="n">
         <v>7.358891630161279</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>6.636845505152815e-12</v>
+        <v>6.636845505895806e-12</v>
       </c>
       <c r="V56" t="n">
-        <v>1.113644280154244e-05</v>
+        <v>1.113644280206111e-05</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.005042100000011374</v>
+        <v>0.002262599999999892</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5095,10 +5095,10 @@
         <v>10.00000208121173</v>
       </c>
       <c r="G57" t="n">
-        <v>16.75949483247292</v>
+        <v>16.75949483247291</v>
       </c>
       <c r="H57" t="n">
-        <v>14.65988024210909</v>
+        <v>14.6598802421091</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>4.323837738533179e-13</v>
+        <v>4.323837739129706e-13</v>
       </c>
       <c r="V57" t="n">
-        <v>2.874319249892447e-06</v>
+        <v>2.874319250971626e-06</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002406899999996881</v>
+        <v>0.001653000000000127</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1.63791277349123e-14</v>
+        <v>1.637912772693474e-14</v>
       </c>
       <c r="V58" t="n">
         <v>4.497836483397769e-07</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.006866100000010533</v>
+        <v>0.006517300000000059</v>
       </c>
       <c r="Y58" t="n">
         <v>26</v>
@@ -5301,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1.614544953669919e-14</v>
+        <v>1.61454495227149e-14</v>
       </c>
       <c r="V59" t="n">
-        <v>6.787204936140291e-07</v>
+        <v>6.787204930228921e-07</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.004542899999989913</v>
+        <v>0.001913300000000007</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5365,7 +5365,7 @@
         <v>15.51473424919647</v>
       </c>
       <c r="O60" t="n">
-        <v>41.96632249224848</v>
+        <v>41.96632249224849</v>
       </c>
       <c r="P60" t="n">
         <v>15.5147596257017</v>
@@ -5383,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>4.643208226723668e-12</v>
+        <v>4.643208225846842e-12</v>
       </c>
       <c r="V60" t="n">
-        <v>9.325600451432673e-06</v>
+        <v>9.3256004585381e-06</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00272329999999954</v>
+        <v>0.001789700000000227</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5447,10 +5447,10 @@
         <v>3.059300117780022</v>
       </c>
       <c r="O61" t="n">
-        <v>56.76410288951994</v>
+        <v>56.76410288951995</v>
       </c>
       <c r="P61" t="n">
-        <v>3.059313310573478</v>
+        <v>3.059313310573479</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>2.648129721327909e-11</v>
+        <v>2.648129721352512e-11</v>
       </c>
       <c r="V61" t="n">
-        <v>1.772107219067594e-05</v>
+        <v>1.772107219258089e-05</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.006177899999997294</v>
+        <v>0.003932000000000269</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5502,13 +5502,13 @@
         <v>359.9999898461233</v>
       </c>
       <c r="F62" t="n">
-        <v>10.00001338294408</v>
+        <v>10.00001338294409</v>
       </c>
       <c r="G62" t="n">
-        <v>54.15718938598867</v>
+        <v>54.15718938598868</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243372903713754</v>
+        <v>5.243372903713757</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>29.53510312576244</v>
       </c>
       <c r="P62" t="n">
-        <v>12.72110287001363</v>
+        <v>12.72110287001364</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>1.96973854911045e-11</v>
+        <v>1.969738550191512e-11</v>
       </c>
       <c r="V62" t="n">
-        <v>1.875916567294675e-05</v>
+        <v>1.875916567491538e-05</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002373699999992596</v>
+        <v>0.001609300000000147</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5614,7 +5614,7 @@
         <v>64.68552831959812</v>
       </c>
       <c r="P63" t="n">
-        <v>4.894767936546287</v>
+        <v>4.894767936546288</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>4.940732188508638e-13</v>
+        <v>4.940732191991048e-13</v>
       </c>
       <c r="V63" t="n">
-        <v>3.031996507085956e-06</v>
+        <v>3.031996507388381e-06</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.007090599999997949</v>
+        <v>0.005045999999999662</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5672,7 +5672,7 @@
         <v>6.075855643778249</v>
       </c>
       <c r="H64" t="n">
-        <v>8.869321183027338</v>
+        <v>8.869321183027337</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>4.846738514822011e-12</v>
+        <v>4.84673851292435e-12</v>
       </c>
       <c r="V64" t="n">
-        <v>1.221859775599067e-05</v>
+        <v>1.221859775516307e-05</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.00384919999999056</v>
+        <v>0.001429499999999972</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.70938510764222</v>
       </c>
       <c r="H65" t="n">
-        <v>7.754983322175311</v>
+        <v>7.754983322175304</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>60.65836453400726</v>
       </c>
       <c r="P65" t="n">
-        <v>11.86529118670599</v>
+        <v>11.86529118670598</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -5793,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>1.086715028724001e-12</v>
+        <v>1.086715028457253e-12</v>
       </c>
       <c r="V65" t="n">
-        <v>5.020529967443832e-06</v>
+        <v>5.020529963905643e-06</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004765200000008463</v>
+        <v>0.003272599999999848</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5857,7 +5857,7 @@
         <v>16.86218162216168</v>
       </c>
       <c r="O66" t="n">
-        <v>45.84592573247669</v>
+        <v>45.8459257324767</v>
       </c>
       <c r="P66" t="n">
         <v>16.86227716832985</v>
@@ -5875,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>4.739516577013383e-11</v>
+        <v>4.739516577030243e-11</v>
       </c>
       <c r="V66" t="n">
-        <v>3.142769018393859e-05</v>
+        <v>3.142769019104402e-05</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002747900000002801</v>
+        <v>0.002340300000000184</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5918,7 +5918,7 @@
         <v>39.35610241271253</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376834424954885</v>
+        <v>3.376834424954883</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>19.57687490653389</v>
       </c>
       <c r="P67" t="n">
-        <v>11.16213119230358</v>
+        <v>11.16213119230357</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>1.096578839485843e-13</v>
+        <v>1.096578836956453e-13</v>
       </c>
       <c r="V67" t="n">
-        <v>1.97902384835989e-06</v>
+        <v>1.979023846779549e-06</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002483399999988478</v>
+        <v>0.001704699999999892</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         <v>12.83113260813786</v>
       </c>
       <c r="O68" t="n">
-        <v>16.96964677228711</v>
+        <v>16.96964677228712</v>
       </c>
       <c r="P68" t="n">
         <v>12.8311345428266</v>
@@ -6039,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>6.095940085492959e-14</v>
+        <v>6.095940073025796e-14</v>
       </c>
       <c r="V68" t="n">
-        <v>1.309610427546646e-06</v>
+        <v>1.309610434652073e-06</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002440699999993967</v>
+        <v>0.003881999999999941</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6106,7 +6106,7 @@
         <v>73.30159453515029</v>
       </c>
       <c r="P69" t="n">
-        <v>17.719893978727</v>
+        <v>17.71989397872699</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>2.585292865508553e-12</v>
+        <v>2.585292865107519e-12</v>
       </c>
       <c r="V69" t="n">
-        <v>1.104086078581921e-05</v>
+        <v>1.104086078515131e-05</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.005618600000005358</v>
+        <v>0.00358140000000029</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6161,10 +6161,10 @@
         <v>10.00000064722097</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68685345377223</v>
+        <v>46.68685345377226</v>
       </c>
       <c r="H70" t="n">
-        <v>3.52033564662305</v>
+        <v>3.520335646623049</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6185,7 +6185,7 @@
         <v>11.12306944814092</v>
       </c>
       <c r="O70" t="n">
-        <v>22.43076049268322</v>
+        <v>22.43076049268321</v>
       </c>
       <c r="P70" t="n">
         <v>11.1230735999219</v>
@@ -6203,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>3.790368808846709e-13</v>
+        <v>3.790368812106352e-13</v>
       </c>
       <c r="V70" t="n">
-        <v>3.37999693160793e-06</v>
+        <v>3.379996922845836e-06</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002414999999999168</v>
+        <v>0.001851599999999731</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="N71" t="n">
         <v>21.2511977384674</v>
@@ -6285,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>1.915765036508021e-11</v>
+        <v>1.915765036292615e-11</v>
       </c>
       <c r="V71" t="n">
-        <v>2.008371545296838e-05</v>
+        <v>2.008371545128034e-05</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003197000000000116</v>
+        <v>0.00194289999999997</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>166.946494359438</v>
       </c>
       <c r="H72" t="n">
-        <v>13.46912146353453</v>
+        <v>13.46912146353452</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>150.0337658218271</v>
       </c>
       <c r="P72" t="n">
-        <v>9.651916097594334</v>
+        <v>9.651916097594331</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>1.410317467010417e-12</v>
+        <v>1.410317465450728e-12</v>
       </c>
       <c r="V72" t="n">
-        <v>2.471799911064413e-06</v>
+        <v>2.471799910121231e-06</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00880700000000445</v>
+        <v>0.004414600000000046</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6410,7 +6410,7 @@
         <v>33.40355475920668</v>
       </c>
       <c r="H73" t="n">
-        <v>7.639205424262155</v>
+        <v>7.639205424262154</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>3.546669917272496e-12</v>
+        <v>3.546669917071436e-12</v>
       </c>
       <c r="V73" t="n">
-        <v>7.840316585127081e-06</v>
+        <v>7.840316584472506e-06</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002416299999993043</v>
+        <v>0.001547599999999871</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6489,7 +6489,7 @@
         <v>10.00000122464413</v>
       </c>
       <c r="G74" t="n">
-        <v>19.21287870918277</v>
+        <v>19.21287870918279</v>
       </c>
       <c r="H74" t="n">
         <v>11.21211768165084</v>
@@ -6516,7 +6516,7 @@
         <v>15.57133449296187</v>
       </c>
       <c r="P74" t="n">
-        <v>20.85420683424875</v>
+        <v>20.85420683424876</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>3.05662441725512e-13</v>
+        <v>3.056624418201425e-13</v>
       </c>
       <c r="V74" t="n">
-        <v>2.380413137580521e-06</v>
+        <v>2.380413138971076e-06</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002361499999992134</v>
+        <v>0.001649500000000081</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6574,7 +6574,7 @@
         <v>115.6841849203574</v>
       </c>
       <c r="H75" t="n">
-        <v>9.463465556314006</v>
+        <v>9.463465556313999</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6595,10 +6595,10 @@
         <v>11.66724248977646</v>
       </c>
       <c r="O75" t="n">
-        <v>77.81914088833662</v>
+        <v>77.81914088833661</v>
       </c>
       <c r="P75" t="n">
-        <v>11.66725778260608</v>
+        <v>11.66725778260607</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>1.125069294088801e-12</v>
+        <v>1.125069293311811e-12</v>
       </c>
       <c r="V75" t="n">
-        <v>6.61204175889531e-06</v>
+        <v>6.612041748897801e-06</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005404999999996107</v>
+        <v>0.003780299999999848</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>1.589723866170664e-13</v>
+        <v>1.589723866173853e-13</v>
       </c>
       <c r="V76" t="n">
         <v>1.694020538364535e-06</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.004312799999993899</v>
+        <v>0.001791100000000156</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6738,7 +6738,7 @@
         <v>102.4091639290469</v>
       </c>
       <c r="H77" t="n">
-        <v>3.791584572698504</v>
+        <v>3.791584572698503</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>1.704899783576348e-11</v>
+        <v>1.704899783423586e-11</v>
       </c>
       <c r="V77" t="n">
-        <v>1.82303625314413e-05</v>
+        <v>1.823036253114848e-05</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003135600000007344</v>
+        <v>0.002099499999999921</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6814,13 +6814,13 @@
         <v>359.9999862533579</v>
       </c>
       <c r="F78" t="n">
-        <v>10.0000427956587</v>
+        <v>10.00004279565871</v>
       </c>
       <c r="G78" t="n">
         <v>55.94941113971252</v>
       </c>
       <c r="H78" t="n">
-        <v>12.82792322617944</v>
+        <v>12.82792322617945</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>3.931576660614961e-11</v>
+        <v>3.931576660773251e-11</v>
       </c>
       <c r="V78" t="n">
-        <v>2.929450426337471e-05</v>
+        <v>2.929450426427917e-05</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004316199999990999</v>
+        <v>0.00180479999999994</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6926,7 +6926,7 @@
         <v>138.9401535111897</v>
       </c>
       <c r="P79" t="n">
-        <v>6.699221023552299</v>
+        <v>6.699221023552297</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>5.880039653222908e-11</v>
+        <v>5.88003965279658e-11</v>
       </c>
       <c r="V79" t="n">
-        <v>2.106981644993827e-05</v>
+        <v>2.106981644886058e-05</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00614160000000652</v>
+        <v>0.004781100000000205</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -6981,10 +6981,10 @@
         <v>9.999994313075952</v>
       </c>
       <c r="G80" t="n">
-        <v>8.672628455537277</v>
+        <v>8.672628455537264</v>
       </c>
       <c r="H80" t="n">
-        <v>11.17159013901158</v>
+        <v>11.17159013901159</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7023,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>5.416940394362958e-12</v>
+        <v>5.416940396108633e-12</v>
       </c>
       <c r="V80" t="n">
-        <v>1.156139336565347e-05</v>
+        <v>1.156139336701562e-05</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002053099999997698</v>
+        <v>0.001424999999999788</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.999995109725</v>
       </c>
       <c r="F81" t="n">
-        <v>10.00001472634622</v>
+        <v>10.00001472634623</v>
       </c>
       <c r="G81" t="n">
         <v>90.12027108863907</v>
       </c>
       <c r="H81" t="n">
-        <v>8.616829181643412</v>
+        <v>8.616829181643418</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,10 +7087,10 @@
         <v>13.66352932901044</v>
       </c>
       <c r="O81" t="n">
-        <v>57.39789896202294</v>
+        <v>57.39789896202295</v>
       </c>
       <c r="P81" t="n">
-        <v>13.66355599235355</v>
+        <v>13.66355599235356</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -7105,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>4.921200973072485e-12</v>
+        <v>4.921200974765045e-12</v>
       </c>
       <c r="V81" t="n">
-        <v>1.077350776234345e-05</v>
+        <v>1.077350776475629e-05</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.004058999999998036</v>
+        <v>0.00261710000000015</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7142,13 +7142,13 @@
         <v>359.9999783082366</v>
       </c>
       <c r="F82" t="n">
-        <v>10.0000818742331</v>
+        <v>10.00008187423309</v>
       </c>
       <c r="G82" t="n">
         <v>93.94488119931106</v>
       </c>
       <c r="H82" t="n">
-        <v>11.39300687420839</v>
+        <v>11.39300687420838</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>66.48786317951949</v>
       </c>
       <c r="P82" t="n">
-        <v>16.15055690160639</v>
+        <v>16.15055690160638</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7187,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>8.016781794627536e-11</v>
+        <v>8.016781794013508e-11</v>
       </c>
       <c r="V82" t="n">
-        <v>5.259929453015114e-05</v>
+        <v>5.259929452822532e-05</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.00582180000000676</v>
+        <v>0.003845200000000215</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7230,7 +7230,7 @@
         <v>63.9754437393868</v>
       </c>
       <c r="H83" t="n">
-        <v>7.090191396006258</v>
+        <v>7.090191396006259</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>14.1881020213233</v>
       </c>
       <c r="O83" t="n">
-        <v>38.41591384226708</v>
+        <v>38.41591384226707</v>
       </c>
       <c r="P83" t="n">
         <v>14.18810967163426</v>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>5.787188551762584e-13</v>
+        <v>5.787188553294697e-13</v>
       </c>
       <c r="V83" t="n">
-        <v>3.1719628553655e-06</v>
+        <v>3.171962855678672e-06</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.003045000000000186</v>
+        <v>0.001870999999999956</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,10 +7306,10 @@
         <v>359.9999972183958</v>
       </c>
       <c r="F84" t="n">
-        <v>10.00000688241203</v>
+        <v>10.00000688241204</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54062876702084</v>
+        <v>49.54062876702083</v>
       </c>
       <c r="H84" t="n">
         <v>10.67078098011003</v>
@@ -7333,7 +7333,7 @@
         <v>19.11454519061216</v>
       </c>
       <c r="O84" t="n">
-        <v>34.81590959226215</v>
+        <v>34.81590959226214</v>
       </c>
       <c r="P84" t="n">
         <v>19.11456384970372</v>
@@ -7351,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>1.578152218336969e-12</v>
+        <v>1.578152219000385e-12</v>
       </c>
       <c r="V84" t="n">
-        <v>5.401695025997053e-06</v>
+        <v>5.401695027139174e-06</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002506999999994264</v>
+        <v>0.001716200000000168</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7391,7 +7391,7 @@
         <v>10.00000573996881</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26764378392987</v>
+        <v>46.26764378392986</v>
       </c>
       <c r="H85" t="n">
         <v>11.20546130707083</v>
@@ -7418,7 +7418,7 @@
         <v>33.13287343770286</v>
       </c>
       <c r="P85" t="n">
-        <v>19.91761930813099</v>
+        <v>19.91761930813098</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>1.09359314391183e-12</v>
+        <v>1.093593143386659e-12</v>
       </c>
       <c r="V85" t="n">
-        <v>4.490140204579078e-06</v>
+        <v>4.490140203885479e-06</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003179099999996993</v>
+        <v>0.001694799999999663</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,13 +7470,13 @@
         <v>359.9999883204697</v>
       </c>
       <c r="F86" t="n">
-        <v>9.999982515624659</v>
+        <v>9.99998251562466</v>
       </c>
       <c r="G86" t="n">
-        <v>8.287389186617595</v>
+        <v>8.287389186617608</v>
       </c>
       <c r="H86" t="n">
-        <v>7.442962332460978</v>
+        <v>7.442962332460977</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>8.615535634344521</v>
       </c>
       <c r="P86" t="n">
-        <v>16.40704784933285</v>
+        <v>16.40704784933284</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>2.071735018379923e-11</v>
+        <v>2.071735018048238e-11</v>
       </c>
       <c r="V86" t="n">
-        <v>2.504556012303798e-05</v>
+        <v>2.504556012208042e-05</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002285000000000537</v>
+        <v>0.001417800000000025</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>359.9999994378164</v>
       </c>
       <c r="F87" t="n">
-        <v>10.00000193568097</v>
+        <v>10.00000193568098</v>
       </c>
       <c r="G87" t="n">
         <v>111.667286749763</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107439494643186</v>
+        <v>9.10743949464319</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7597,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>4.94621807392836e-14</v>
+        <v>4.946218090340413e-14</v>
       </c>
       <c r="V87" t="n">
-        <v>1.293177390486223e-06</v>
+        <v>1.293177391962743e-06</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.0108996000000019</v>
+        <v>0.003798999999999886</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7637,10 +7637,10 @@
         <v>10.00000164709294</v>
       </c>
       <c r="G88" t="n">
-        <v>36.46924950674551</v>
+        <v>36.46924950674552</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485122873471125</v>
+        <v>5.485122873471126</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7679,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>8.415811822051393e-13</v>
+        <v>8.41581183344474e-13</v>
       </c>
       <c r="V88" t="n">
-        <v>4.098048134872432e-06</v>
+        <v>4.098048134783471e-06</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002237299999990228</v>
+        <v>0.001562700000000028</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>359.9999984725889</v>
       </c>
       <c r="F89" t="n">
-        <v>10.00000816790291</v>
+        <v>10.00000816790292</v>
       </c>
       <c r="G89" t="n">
         <v>118.1275549084242</v>
       </c>
       <c r="H89" t="n">
-        <v>14.45883183044601</v>
+        <v>14.45883183044602</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>92.76682234590072</v>
       </c>
       <c r="P89" t="n">
-        <v>16.49117513612229</v>
+        <v>16.49117513612231</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>3.149477182084321e-13</v>
+        <v>3.149477186467419e-13</v>
       </c>
       <c r="V89" t="n">
-        <v>4.407194995857067e-06</v>
+        <v>4.407195001082788e-06</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006218099999998117</v>
+        <v>0.004183600000000176</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7804,7 +7804,7 @@
         <v>116.5591883466071</v>
       </c>
       <c r="H90" t="n">
-        <v>9.08580624497093</v>
+        <v>9.085806244970932</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>6.237883518583941e-13</v>
+        <v>6.237883521899907e-13</v>
       </c>
       <c r="V90" t="n">
-        <v>4.806226627072103e-06</v>
+        <v>4.806226627560876e-06</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.01185079999999061</v>
+        <v>0.003797300000000003</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7883,10 +7883,10 @@
         <v>10.0000028986148</v>
       </c>
       <c r="G91" t="n">
-        <v>89.94497694062488</v>
+        <v>89.94497694062487</v>
       </c>
       <c r="H91" t="n">
-        <v>6.071249053443018</v>
+        <v>6.071249053443019</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>3.613189035230464e-13</v>
+        <v>3.61318903629869e-13</v>
       </c>
       <c r="V91" t="n">
-        <v>2.570848095826974e-06</v>
+        <v>2.570848096903249e-06</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003442500000005566</v>
+        <v>0.002404799999999874</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -7965,10 +7965,10 @@
         <v>10.00000003451844</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54975427408561</v>
+        <v>27.54975427408562</v>
       </c>
       <c r="H92" t="n">
-        <v>4.892229757996465</v>
+        <v>4.892229757996467</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>7.200524117804897e-14</v>
+        <v>7.200524138271233e-14</v>
       </c>
       <c r="V92" t="n">
-        <v>1.37446767220072e-06</v>
+        <v>1.37446767262264e-06</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003778299999993351</v>
+        <v>0.001611900000000333</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8050,7 +8050,7 @@
         <v>36.18065099846007</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948258856518818</v>
+        <v>6.948258856518819</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8089,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>3.817824787163306e-12</v>
+        <v>3.817824789073253e-12</v>
       </c>
       <c r="V93" t="n">
-        <v>8.150637029653632e-06</v>
+        <v>8.150637030358382e-06</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00682420000001116</v>
+        <v>0.001613400000000098</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,7 +8126,7 @@
         <v>359.9999994338546</v>
       </c>
       <c r="F94" t="n">
-        <v>10.00001191851979</v>
+        <v>10.00001191851978</v>
       </c>
       <c r="G94" t="n">
         <v>159.4584829067732</v>
@@ -8156,7 +8156,7 @@
         <v>135.8914046397898</v>
       </c>
       <c r="P94" t="n">
-        <v>9.221227909221618</v>
+        <v>9.221227909221616</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8171,10 +8171,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>7.610474627751473e-12</v>
+        <v>7.610474624834695e-12</v>
       </c>
       <c r="V94" t="n">
-        <v>7.647594239633027e-06</v>
+        <v>7.64759423859931e-06</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.01270449999999812</v>
+        <v>0.004902299999999915</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>8.963540641558797e-13</v>
+        <v>8.963540632601537e-13</v>
       </c>
       <c r="V95" t="n">
         <v>6.252296822579985e-06</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.008870200000004047</v>
+        <v>0.003877999999999826</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8290,13 +8290,13 @@
         <v>359.9999939583926</v>
       </c>
       <c r="F96" t="n">
-        <v>10.00002629798699</v>
+        <v>10.00002629798698</v>
       </c>
       <c r="G96" t="n">
         <v>129.4894355683257</v>
       </c>
       <c r="H96" t="n">
-        <v>10.28669247427723</v>
+        <v>10.28669247427722</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8335,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>4.354225117679087e-12</v>
+        <v>4.354225117540231e-12</v>
       </c>
       <c r="V96" t="n">
-        <v>1.557908417437782e-05</v>
+        <v>1.557908417154492e-05</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.007627599999992185</v>
+        <v>0.004801300000000008</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>1.847206940920807e-12</v>
+        <v>1.8472069408037e-12</v>
       </c>
       <c r="V97" t="n">
         <v>6.007518753257908e-06</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002345499999989897</v>
+        <v>0.001601500000000033</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8481,10 +8481,10 @@
         <v>23.48744640074011</v>
       </c>
       <c r="O98" t="n">
-        <v>29.58813843632877</v>
+        <v>29.58813843632875</v>
       </c>
       <c r="P98" t="n">
-        <v>23.4874647005676</v>
+        <v>23.48746470056761</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>8.916009552228165e-13</v>
+        <v>8.91600955151585e-13</v>
       </c>
       <c r="V98" t="n">
-        <v>4.147464359501615e-06</v>
+        <v>4.147464360072882e-06</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.004838100000000622</v>
+        <v>0.00173190000000023</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8581,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>3.485008549467813e-12</v>
+        <v>3.485008550188141e-12</v>
       </c>
       <c r="V99" t="n">
-        <v>5.976091436498379e-06</v>
+        <v>5.976091436801659e-06</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.01135800000000131</v>
+        <v>0.005078600000000044</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>4.624089522824473e-13</v>
+        <v>4.624089517811465e-13</v>
       </c>
       <c r="V100" t="n">
         <v>5.052235167269684e-06</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.008882100000008109</v>
+        <v>0.004602999999999913</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8706,7 +8706,7 @@
         <v>121.0101362825319</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856964362929558</v>
+        <v>8.856964362929556</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>10.4553174329922</v>
       </c>
       <c r="O101" t="n">
-        <v>79.48495084480945</v>
+        <v>79.48495084480946</v>
       </c>
       <c r="P101" t="n">
         <v>10.45534147057428</v>
@@ -8745,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>3.466410997999783e-12</v>
+        <v>3.466410996546514e-12</v>
       </c>
       <c r="V101" t="n">
-        <v>1.164758037763735e-05</v>
+        <v>1.164758037656961e-05</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.008481000000003291</v>
+        <v>0.004993999999999943</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>
